--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.012120-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.012120-2.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6813,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9743,12 +9743,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10461,12 +10461,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14231,12 +14231,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15029,12 +15029,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16761,12 +16761,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16845,12 +16845,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17307,12 +17307,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17773,12 +17773,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17815,12 +17815,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18495,12 +18495,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18705,12 +18705,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18789,12 +18789,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19041,12 +19041,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19503,12 +19503,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20397,12 +20397,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20859,12 +20859,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21237,12 +21237,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22329,12 +22329,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22791,12 +22791,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22833,12 +22833,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22917,12 +22917,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22959,12 +22959,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23001,12 +23001,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23425,12 +23425,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23509,12 +23509,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23593,12 +23593,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
